--- a/로스트아크/데이터테이블/1차완성/SkillEffect_Parameter_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/SkillEffect_Parameter_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15FEB85-E046-4C92-ABA4-843A47ED73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88121D8F-B20C-4480-BC46-B11516CA9B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="0" windowWidth="15636" windowHeight="12336" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1283,6 +1283,33 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1295,10 +1322,31 @@
     <xf numFmtId="177" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="13" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,21 +1358,9 @@
     <xf numFmtId="177" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="14" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1333,42 +1369,6 @@
     </xf>
     <xf numFmtId="177" fontId="14" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1713,11 +1713,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1910,14 +1910,14 @@
   <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.8984375" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.8984375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.296875" style="4" bestFit="1" customWidth="1"/>
@@ -1961,10 +1961,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="14">
@@ -1991,8 +1991,8 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="65"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="14">
         <v>3050000</v>
       </c>
@@ -2017,8 +2017,8 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65"/>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="14">
@@ -2045,8 +2045,8 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="65"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="14">
         <v>3050001</v>
       </c>
@@ -2071,10 +2071,10 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="14">
@@ -2101,8 +2101,8 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="64"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="14">
         <v>3050010</v>
       </c>
@@ -2127,10 +2127,10 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="81" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="14">
@@ -2157,8 +2157,8 @@
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14">
         <v>3050500</v>
       </c>
@@ -2183,8 +2183,8 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="62"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="14">
         <v>3050500</v>
       </c>
@@ -2209,8 +2209,8 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="81" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="14">
@@ -2237,8 +2237,8 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="62"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="14">
         <v>3050501</v>
       </c>
@@ -2263,8 +2263,8 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="14">
         <v>3050501</v>
       </c>
@@ -2289,10 +2289,10 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="81" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="14">
@@ -2319,8 +2319,8 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="62"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="14">
         <v>3050510</v>
       </c>
@@ -2345,8 +2345,8 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="62"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="14">
         <v>3050510</v>
       </c>
@@ -2371,8 +2371,8 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="62"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="81" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="14">
@@ -2399,8 +2399,8 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="62"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="14">
         <v>3050511</v>
       </c>
@@ -2425,8 +2425,8 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="62"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="14">
         <v>3050511</v>
       </c>
@@ -2451,8 +2451,8 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="14">
@@ -2479,8 +2479,8 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="14">
         <v>3050512</v>
       </c>
@@ -2505,8 +2505,8 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="63"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="14">
         <v>3050512</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="A23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -2549,10 +2549,10 @@
       <c r="F23"/>
     </row>
     <row r="24" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="76" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="14">
@@ -2579,8 +2579,8 @@
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="64"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="14">
         <v>3051800</v>
       </c>
@@ -2605,8 +2605,8 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="64"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="14">
@@ -2633,8 +2633,8 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="64"/>
-      <c r="B27" s="68"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="14">
         <v>3051801</v>
       </c>
@@ -2659,8 +2659,8 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="14">
         <v>3051801</v>
       </c>
@@ -2685,8 +2685,8 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="14">
         <v>3051801</v>
       </c>
@@ -2711,10 +2711,10 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="76" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="14">
@@ -2741,8 +2741,8 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="64"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="14">
         <v>3051810</v>
       </c>
@@ -2767,8 +2767,8 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="64"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="76" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="14">
@@ -2795,8 +2795,8 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="64"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="14">
         <v>3051811</v>
       </c>
@@ -2821,8 +2821,8 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="64"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="14">
         <v>3051811</v>
       </c>
@@ -2847,8 +2847,8 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="64"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="14">
         <v>3051811</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="A36" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="52" t="s">
@@ -2891,10 +2891,10 @@
       <c r="F36"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="59" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="51">
@@ -2921,8 +2921,8 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="62"/>
-      <c r="B38" s="75" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="69" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="51">
@@ -2949,8 +2949,8 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="62"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="51">
         <v>3052201</v>
       </c>
@@ -2975,8 +2975,8 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="62"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="51">
         <v>3052201</v>
       </c>
@@ -3001,8 +3001,8 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="62"/>
-      <c r="B41" s="68" t="s">
+      <c r="A41" s="78"/>
+      <c r="B41" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="14">
@@ -3029,8 +3029,8 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="62"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="14">
         <v>3052202</v>
       </c>
@@ -3055,8 +3055,8 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="62"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="14">
         <v>3052202</v>
       </c>
@@ -3081,8 +3081,8 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="62"/>
-      <c r="B44" s="68" t="s">
+      <c r="A44" s="78"/>
+      <c r="B44" s="76" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="14">
@@ -3109,8 +3109,8 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="62"/>
-      <c r="B45" s="68"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="14">
         <v>3052203</v>
       </c>
@@ -3135,8 +3135,8 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="62"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="14">
         <v>3052203</v>
       </c>
@@ -3161,8 +3161,8 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="63"/>
-      <c r="B47" s="78" t="s">
+      <c r="A47" s="79"/>
+      <c r="B47" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="14">
@@ -3189,10 +3189,10 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="56" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="14">
@@ -3207,8 +3207,8 @@
       <c r="F48"/>
     </row>
     <row r="49" spans="1:18" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="62"/>
-      <c r="B49" s="68" t="s">
+      <c r="A49" s="78"/>
+      <c r="B49" s="76" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="14">
@@ -3223,8 +3223,8 @@
       <c r="F49"/>
     </row>
     <row r="50" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="62"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="14">
         <v>3052201</v>
       </c>
@@ -3249,8 +3249,8 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="62"/>
-      <c r="B51" s="68"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="14">
         <v>3052201</v>
       </c>
@@ -3275,8 +3275,8 @@
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="62"/>
-      <c r="B52" s="68" t="s">
+      <c r="A52" s="78"/>
+      <c r="B52" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="14">
@@ -3303,8 +3303,8 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="62"/>
-      <c r="B53" s="68"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="76"/>
       <c r="C53" s="14">
         <v>3052202</v>
       </c>
@@ -3329,8 +3329,8 @@
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="62"/>
-      <c r="B54" s="68"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="76"/>
       <c r="C54" s="14">
         <v>3052202</v>
       </c>
@@ -3355,8 +3355,8 @@
       <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="62"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="78"/>
+      <c r="B55" s="76" t="s">
         <v>73</v>
       </c>
       <c r="C55" s="14">
@@ -3383,8 +3383,8 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="62"/>
-      <c r="B56" s="68"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="76"/>
       <c r="C56" s="14">
         <v>3052203</v>
       </c>
@@ -3409,8 +3409,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="62"/>
-      <c r="B57" s="68"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="76"/>
       <c r="C57" s="14">
         <v>3052203</v>
       </c>
@@ -3435,8 +3435,8 @@
       <c r="R57" s="11"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="63"/>
-      <c r="B58" s="78" t="s">
+      <c r="A58" s="79"/>
+      <c r="B58" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="14">
@@ -3463,10 +3463,10 @@
       <c r="R58" s="11"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="56" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="14">
@@ -3493,8 +3493,8 @@
       <c r="R59" s="11"/>
     </row>
     <row r="60" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="59"/>
-      <c r="B60" s="68" t="s">
+      <c r="A60" s="72"/>
+      <c r="B60" s="76" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="14">
@@ -3521,8 +3521,8 @@
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="59"/>
-      <c r="B61" s="68"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="76"/>
       <c r="C61" s="14">
         <v>3052301</v>
       </c>
@@ -3547,8 +3547,8 @@
       <c r="R61" s="11"/>
     </row>
     <row r="62" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="59"/>
-      <c r="B62" s="68"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="76"/>
       <c r="C62" s="14">
         <v>3052301</v>
       </c>
@@ -3573,8 +3573,8 @@
       <c r="R62" s="11"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="60"/>
-      <c r="B63" s="78" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="14">
@@ -3601,10 +3601,10 @@
       <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="56" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="14">
@@ -3631,8 +3631,8 @@
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="59"/>
-      <c r="B65" s="74" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="59" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="14">
@@ -3659,8 +3659,8 @@
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="59"/>
-      <c r="B66" s="75" t="s">
+      <c r="A66" s="72"/>
+      <c r="B66" s="69" t="s">
         <v>90</v>
       </c>
       <c r="C66" s="14">
@@ -3687,8 +3687,8 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="59"/>
-      <c r="B67" s="76"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="14">
         <v>3052402</v>
       </c>
@@ -3713,8 +3713,8 @@
       <c r="R67" s="11"/>
     </row>
     <row r="68" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="60"/>
-      <c r="B68" s="77"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="14">
         <v>3052402</v>
       </c>
@@ -3739,10 +3739,10 @@
       <c r="R68" s="11"/>
     </row>
     <row r="69" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="71" t="s">
         <v>63</v>
       </c>
       <c r="C69" s="51">
@@ -3769,8 +3769,8 @@
       <c r="R69" s="11"/>
     </row>
     <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="64"/>
-      <c r="B70" s="68"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="76"/>
       <c r="C70" s="14">
         <v>3052500</v>
       </c>
@@ -3795,8 +3795,8 @@
       <c r="R70" s="11"/>
     </row>
     <row r="71" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="64"/>
-      <c r="B71" s="68"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="76"/>
       <c r="C71" s="14">
         <v>3052500</v>
       </c>
@@ -3821,8 +3821,8 @@
       <c r="R71" s="11"/>
     </row>
     <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="64"/>
-      <c r="B72" s="68" t="s">
+      <c r="A72" s="75"/>
+      <c r="B72" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C72" s="14">
@@ -3849,8 +3849,8 @@
       <c r="R72" s="11"/>
     </row>
     <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="64"/>
-      <c r="B73" s="68"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
       <c r="C73" s="14">
         <v>3052501</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="R73" s="11"/>
     </row>
     <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="64"/>
-      <c r="B74" s="68"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="76"/>
       <c r="C74" s="14">
         <v>3052501</v>
       </c>
@@ -3901,10 +3901,10 @@
       <c r="R74" s="11"/>
     </row>
     <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="76" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="14">
@@ -3931,8 +3931,8 @@
       <c r="R75" s="11"/>
     </row>
     <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="64"/>
-      <c r="B76" s="68"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
       <c r="C76" s="14">
         <v>3052510</v>
       </c>
@@ -3957,8 +3957,8 @@
       <c r="R76" s="11"/>
     </row>
     <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="64"/>
-      <c r="B77" s="68"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
       <c r="C77" s="14">
         <v>3052510</v>
       </c>
@@ -3983,8 +3983,8 @@
       <c r="R77" s="11"/>
     </row>
     <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="64"/>
-      <c r="B78" s="68" t="s">
+      <c r="A78" s="75"/>
+      <c r="B78" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C78" s="14">
@@ -4011,8 +4011,8 @@
       <c r="R78" s="11"/>
     </row>
     <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="64"/>
-      <c r="B79" s="68"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="76"/>
       <c r="C79" s="14">
         <v>3052511</v>
       </c>
@@ -4037,8 +4037,8 @@
       <c r="R79" s="11"/>
     </row>
     <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="64"/>
-      <c r="B80" s="68"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="76"/>
       <c r="C80" s="14">
         <v>3052511</v>
       </c>
@@ -4063,10 +4063,10 @@
       <c r="R80" s="11"/>
     </row>
     <row r="81" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="66" t="s">
+      <c r="A81" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="14">
@@ -4093,8 +4093,8 @@
       <c r="R81" s="11"/>
     </row>
     <row r="82" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="66"/>
-      <c r="B82" s="79" t="s">
+      <c r="A82" s="73"/>
+      <c r="B82" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="14">
@@ -4121,8 +4121,8 @@
       <c r="R82" s="11"/>
     </row>
     <row r="83" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="66"/>
-      <c r="B83" s="79" t="s">
+      <c r="A83" s="73"/>
+      <c r="B83" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="14">
@@ -4149,8 +4149,8 @@
       <c r="R83" s="11"/>
     </row>
     <row r="84" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="66"/>
-      <c r="B84" s="80" t="s">
+      <c r="A84" s="73"/>
+      <c r="B84" s="74" t="s">
         <v>68</v>
       </c>
       <c r="C84" s="14">
@@ -4177,8 +4177,8 @@
       <c r="R84" s="11"/>
     </row>
     <row r="85" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="66"/>
-      <c r="B85" s="80"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="74"/>
       <c r="C85" s="14">
         <v>3052603</v>
       </c>
@@ -4203,8 +4203,8 @@
       <c r="R85" s="11"/>
     </row>
     <row r="86" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="66"/>
-      <c r="B86" s="80"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
       <c r="C86" s="14">
         <v>3052603</v>
       </c>
@@ -4229,8 +4229,8 @@
       <c r="R86" s="10"/>
     </row>
     <row r="87" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="66"/>
-      <c r="B87" s="80" t="s">
+      <c r="A87" s="73"/>
+      <c r="B87" s="74" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="14">
@@ -4257,8 +4257,8 @@
       <c r="R87" s="11"/>
     </row>
     <row r="88" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="66"/>
-      <c r="B88" s="80"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="14">
         <v>3052604</v>
       </c>
@@ -4283,8 +4283,8 @@
       <c r="R88" s="11"/>
     </row>
     <row r="89" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="66"/>
-      <c r="B89" s="80"/>
+      <c r="A89" s="73"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="14">
         <v>3052604</v>
       </c>
@@ -4309,8 +4309,8 @@
       <c r="R89" s="11"/>
     </row>
     <row r="90" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="66"/>
-      <c r="B90" s="80" t="s">
+      <c r="A90" s="73"/>
+      <c r="B90" s="74" t="s">
         <v>77</v>
       </c>
       <c r="C90" s="14">
@@ -4337,8 +4337,8 @@
       <c r="R90" s="11"/>
     </row>
     <row r="91" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="66"/>
-      <c r="B91" s="80"/>
+      <c r="A91" s="73"/>
+      <c r="B91" s="74"/>
       <c r="C91" s="14">
         <v>3052605</v>
       </c>
@@ -4363,8 +4363,8 @@
       <c r="R91" s="11"/>
     </row>
     <row r="92" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="66"/>
-      <c r="B92" s="80"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="74"/>
       <c r="C92" s="14">
         <v>3052605</v>
       </c>
@@ -4389,8 +4389,8 @@
       <c r="R92" s="11"/>
     </row>
     <row r="93" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="66"/>
-      <c r="B93" s="80" t="s">
+      <c r="A93" s="73"/>
+      <c r="B93" s="74" t="s">
         <v>78</v>
       </c>
       <c r="C93" s="14">
@@ -4417,8 +4417,8 @@
       <c r="R93" s="11"/>
     </row>
     <row r="94" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="66"/>
-      <c r="B94" s="80"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="74"/>
       <c r="C94" s="14">
         <v>3052606</v>
       </c>
@@ -4443,8 +4443,8 @@
       <c r="R94" s="11"/>
     </row>
     <row r="95" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="66"/>
-      <c r="B95" s="80"/>
+      <c r="A95" s="73"/>
+      <c r="B95" s="74"/>
       <c r="C95" s="14">
         <v>3052606</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="R95" s="11"/>
     </row>
     <row r="96" spans="1:18" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="66"/>
-      <c r="B96" s="79" t="s">
+      <c r="A96" s="73"/>
+      <c r="B96" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="14">
@@ -4497,8 +4497,8 @@
       <c r="R96" s="11"/>
     </row>
     <row r="97" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="66"/>
-      <c r="B97" s="79" t="s">
+      <c r="A97" s="73"/>
+      <c r="B97" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="14">
@@ -4514,10 +4514,10 @@
       <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="66" t="s">
+      <c r="A98" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C98" s="14">
@@ -4533,8 +4533,8 @@
       <c r="G98" s="14"/>
     </row>
     <row r="99" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="66"/>
-      <c r="B99" s="79" t="s">
+      <c r="A99" s="73"/>
+      <c r="B99" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="14">
@@ -4550,8 +4550,8 @@
       <c r="G99" s="14"/>
     </row>
     <row r="100" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="66"/>
-      <c r="B100" s="80" t="s">
+      <c r="A100" s="73"/>
+      <c r="B100" s="74" t="s">
         <v>69</v>
       </c>
       <c r="C100" s="14">
@@ -4567,8 +4567,8 @@
       <c r="G100" s="14"/>
     </row>
     <row r="101" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="66"/>
-      <c r="B101" s="80"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="74"/>
       <c r="C101" s="14">
         <v>3052702</v>
       </c>
@@ -4582,8 +4582,8 @@
       <c r="G101" s="14"/>
     </row>
     <row r="102" spans="1:7" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="66"/>
-      <c r="B102" s="80"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="74"/>
       <c r="C102" s="14">
         <v>3052702</v>
       </c>
@@ -4596,8 +4596,8 @@
       <c r="F102"/>
     </row>
     <row r="103" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="66"/>
-      <c r="B103" s="79" t="s">
+      <c r="A103" s="73"/>
+      <c r="B103" s="60" t="s">
         <v>70</v>
       </c>
       <c r="C103" s="14">
@@ -4613,8 +4613,8 @@
       <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="66"/>
-      <c r="B104" s="80" t="s">
+      <c r="A104" s="73"/>
+      <c r="B104" s="74" t="s">
         <v>79</v>
       </c>
       <c r="C104" s="14">
@@ -4628,8 +4628,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="66"/>
-      <c r="B105" s="80"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="74"/>
       <c r="C105" s="14">
         <v>3052704</v>
       </c>
@@ -4641,8 +4641,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="66"/>
-      <c r="B106" s="80"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="74"/>
       <c r="C106" s="14">
         <v>3052704</v>
       </c>
@@ -4654,8 +4654,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="66"/>
-      <c r="B107" s="80" t="s">
+      <c r="A107" s="73"/>
+      <c r="B107" s="74" t="s">
         <v>80</v>
       </c>
       <c r="C107" s="14">
@@ -4669,8 +4669,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="66"/>
-      <c r="B108" s="80"/>
+      <c r="A108" s="73"/>
+      <c r="B108" s="74"/>
       <c r="C108" s="14">
         <v>3052705</v>
       </c>
@@ -4682,8 +4682,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="66"/>
-      <c r="B109" s="80"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="74"/>
       <c r="C109" s="14">
         <v>3052705</v>
       </c>
@@ -4695,8 +4695,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="66"/>
-      <c r="B110" s="80" t="s">
+      <c r="A110" s="73"/>
+      <c r="B110" s="74" t="s">
         <v>71</v>
       </c>
       <c r="C110" s="14">
@@ -4710,8 +4710,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="66"/>
-      <c r="B111" s="80"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="74"/>
       <c r="C111" s="14">
         <v>3052706</v>
       </c>
@@ -4723,8 +4723,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="66"/>
-      <c r="B112" s="80"/>
+      <c r="A112" s="73"/>
+      <c r="B112" s="74"/>
       <c r="C112" s="14">
         <v>3052706</v>
       </c>
@@ -4736,8 +4736,8 @@
       </c>
     </row>
     <row r="113" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="66"/>
-      <c r="B113" s="79" t="s">
+      <c r="A113" s="73"/>
+      <c r="B113" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="14">
@@ -4751,8 +4751,8 @@
       </c>
     </row>
     <row r="114" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="66"/>
-      <c r="B114" s="79" t="s">
+      <c r="A114" s="73"/>
+      <c r="B114" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C114" s="14">
@@ -4766,10 +4766,10 @@
       </c>
     </row>
     <row r="115" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="58" t="s">
+      <c r="A115" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="78" t="s">
+      <c r="B115" s="56" t="s">
         <v>97</v>
       </c>
       <c r="C115" s="14">
@@ -4796,8 +4796,8 @@
       <c r="R115" s="11"/>
     </row>
     <row r="116" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="59"/>
-      <c r="B116" s="75" t="s">
+      <c r="A116" s="72"/>
+      <c r="B116" s="69" t="s">
         <v>74</v>
       </c>
       <c r="C116" s="14">
@@ -4824,8 +4824,8 @@
       <c r="R116" s="11"/>
     </row>
     <row r="117" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="59"/>
-      <c r="B117" s="76"/>
+      <c r="A117" s="72"/>
+      <c r="B117" s="70"/>
       <c r="C117" s="14">
         <v>3052801</v>
       </c>
@@ -4850,8 +4850,8 @@
       <c r="R117" s="11"/>
     </row>
     <row r="118" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="59"/>
-      <c r="B118" s="76"/>
+      <c r="A118" s="72"/>
+      <c r="B118" s="70"/>
       <c r="C118" s="14">
         <v>3052801</v>
       </c>
@@ -4876,8 +4876,8 @@
       <c r="R118" s="11"/>
     </row>
     <row r="119" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="59"/>
-      <c r="B119" s="77"/>
+      <c r="A119" s="72"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="14">
         <v>3052801</v>
       </c>
@@ -4902,8 +4902,8 @@
       <c r="R119" s="11"/>
     </row>
     <row r="120" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="59"/>
-      <c r="B120" s="75" t="s">
+      <c r="A120" s="72"/>
+      <c r="B120" s="69" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="14">
@@ -4930,8 +4930,8 @@
       <c r="R120" s="11"/>
     </row>
     <row r="121" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="59"/>
-      <c r="B121" s="76"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="70"/>
       <c r="C121" s="14">
         <v>3052802</v>
       </c>
@@ -4956,8 +4956,8 @@
       <c r="R121" s="11"/>
     </row>
     <row r="122" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="59"/>
-      <c r="B122" s="76"/>
+      <c r="A122" s="72"/>
+      <c r="B122" s="70"/>
       <c r="C122" s="14">
         <v>3052802</v>
       </c>
@@ -4982,8 +4982,8 @@
       <c r="R122" s="11"/>
     </row>
     <row r="123" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="59"/>
-      <c r="B123" s="77"/>
+      <c r="A123" s="72"/>
+      <c r="B123" s="71"/>
       <c r="C123" s="14">
         <v>3052802</v>
       </c>
@@ -5008,8 +5008,8 @@
       <c r="R123" s="11"/>
     </row>
     <row r="124" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="59"/>
-      <c r="B124" s="75" t="s">
+      <c r="A124" s="72"/>
+      <c r="B124" s="69" t="s">
         <v>98</v>
       </c>
       <c r="C124" s="14">
@@ -5036,8 +5036,8 @@
       <c r="R124" s="11"/>
     </row>
     <row r="125" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="59"/>
-      <c r="B125" s="76"/>
+      <c r="A125" s="72"/>
+      <c r="B125" s="70"/>
       <c r="C125" s="14">
         <v>3052803</v>
       </c>
@@ -5062,8 +5062,8 @@
       <c r="R125" s="11"/>
     </row>
     <row r="126" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="59"/>
-      <c r="B126" s="77"/>
+      <c r="A126" s="72"/>
+      <c r="B126" s="71"/>
       <c r="C126" s="14">
         <v>3052803</v>
       </c>
@@ -5088,8 +5088,8 @@
       <c r="R126" s="11"/>
     </row>
     <row r="127" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="60"/>
-      <c r="B127" s="78" t="s">
+      <c r="A127" s="68"/>
+      <c r="B127" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="14">
@@ -5116,10 +5116,10 @@
       <c r="R127" s="11"/>
     </row>
     <row r="128" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="58" t="s">
+      <c r="A128" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B128" s="78" t="s">
+      <c r="B128" s="56" t="s">
         <v>97</v>
       </c>
       <c r="C128" s="14">
@@ -5146,8 +5146,8 @@
       <c r="R128" s="11"/>
     </row>
     <row r="129" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="59"/>
-      <c r="B129" s="75" t="s">
+      <c r="A129" s="72"/>
+      <c r="B129" s="69" t="s">
         <v>104</v>
       </c>
       <c r="C129" s="14">
@@ -5174,8 +5174,8 @@
       <c r="R129" s="11"/>
     </row>
     <row r="130" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="59"/>
-      <c r="B130" s="76"/>
+      <c r="A130" s="72"/>
+      <c r="B130" s="70"/>
       <c r="C130" s="14">
         <v>3052901</v>
       </c>
@@ -5200,8 +5200,8 @@
       <c r="R130" s="11"/>
     </row>
     <row r="131" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="59"/>
-      <c r="B131" s="77"/>
+      <c r="A131" s="72"/>
+      <c r="B131" s="71"/>
       <c r="C131" s="14">
         <v>3052901</v>
       </c>
@@ -5226,8 +5226,8 @@
       <c r="R131" s="11"/>
     </row>
     <row r="132" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="60"/>
-      <c r="B132" s="78" t="s">
+      <c r="A132" s="68"/>
+      <c r="B132" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C132" s="14">
@@ -5254,10 +5254,10 @@
       <c r="R132" s="11"/>
     </row>
     <row r="133" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="58" t="s">
+      <c r="A133" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B133" s="78" t="s">
+      <c r="B133" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C133" s="14">
@@ -5284,8 +5284,8 @@
       <c r="R133" s="11"/>
     </row>
     <row r="134" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="59"/>
-      <c r="B134" s="78" t="s">
+      <c r="A134" s="72"/>
+      <c r="B134" s="56" t="s">
         <v>19</v>
       </c>
       <c r="C134" s="14">
@@ -5312,8 +5312,8 @@
       <c r="R134" s="11"/>
     </row>
     <row r="135" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="59"/>
-      <c r="B135" s="75" t="s">
+      <c r="A135" s="72"/>
+      <c r="B135" s="69" t="s">
         <v>105</v>
       </c>
       <c r="C135" s="14">
@@ -5340,8 +5340,8 @@
       <c r="R135" s="11"/>
     </row>
     <row r="136" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="59"/>
-      <c r="B136" s="76"/>
+      <c r="A136" s="72"/>
+      <c r="B136" s="70"/>
       <c r="C136" s="14">
         <v>3053002</v>
       </c>
@@ -5366,8 +5366,8 @@
       <c r="R136" s="11"/>
     </row>
     <row r="137" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="59"/>
-      <c r="B137" s="77"/>
+      <c r="A137" s="72"/>
+      <c r="B137" s="71"/>
       <c r="C137" s="14">
         <v>3053002</v>
       </c>
@@ -5392,8 +5392,8 @@
       <c r="R137" s="11"/>
     </row>
     <row r="138" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="60"/>
-      <c r="B138" s="78" t="s">
+      <c r="A138" s="68"/>
+      <c r="B138" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C138" s="14">
@@ -5420,10 +5420,10 @@
       <c r="R138" s="11"/>
     </row>
     <row r="139" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="58" t="s">
+      <c r="A139" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B139" s="78" t="s">
+      <c r="B139" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C139" s="14">
@@ -5450,8 +5450,8 @@
       <c r="R139" s="11"/>
     </row>
     <row r="140" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="59"/>
-      <c r="B140" s="78" t="s">
+      <c r="A140" s="72"/>
+      <c r="B140" s="56" t="s">
         <v>19</v>
       </c>
       <c r="C140" s="14">
@@ -5478,8 +5478,8 @@
       <c r="R140" s="11"/>
     </row>
     <row r="141" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="59"/>
-      <c r="B141" s="75" t="s">
+      <c r="A141" s="72"/>
+      <c r="B141" s="69" t="s">
         <v>100</v>
       </c>
       <c r="C141" s="14">
@@ -5506,8 +5506,8 @@
       <c r="R141" s="11"/>
     </row>
     <row r="142" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="59"/>
-      <c r="B142" s="76"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="70"/>
       <c r="C142" s="14">
         <v>3053102</v>
       </c>
@@ -5532,8 +5532,8 @@
       <c r="R142" s="11"/>
     </row>
     <row r="143" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="59"/>
-      <c r="B143" s="77"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="71"/>
       <c r="C143" s="14">
         <v>3053102</v>
       </c>
@@ -5558,8 +5558,8 @@
       <c r="R143" s="11"/>
     </row>
     <row r="144" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="59"/>
-      <c r="B144" s="75" t="s">
+      <c r="A144" s="72"/>
+      <c r="B144" s="69" t="s">
         <v>101</v>
       </c>
       <c r="C144" s="14">
@@ -5586,8 +5586,8 @@
       <c r="R144" s="11"/>
     </row>
     <row r="145" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="59"/>
-      <c r="B145" s="76"/>
+      <c r="A145" s="72"/>
+      <c r="B145" s="70"/>
       <c r="C145" s="14">
         <v>3053103</v>
       </c>
@@ -5612,8 +5612,8 @@
       <c r="R145" s="11"/>
     </row>
     <row r="146" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="59"/>
-      <c r="B146" s="77"/>
+      <c r="A146" s="72"/>
+      <c r="B146" s="71"/>
       <c r="C146" s="14">
         <v>3053103</v>
       </c>
@@ -5638,8 +5638,8 @@
       <c r="R146" s="11"/>
     </row>
     <row r="147" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="59"/>
-      <c r="B147" s="75" t="s">
+      <c r="A147" s="72"/>
+      <c r="B147" s="69" t="s">
         <v>102</v>
       </c>
       <c r="C147" s="14">
@@ -5666,8 +5666,8 @@
       <c r="R147" s="11"/>
     </row>
     <row r="148" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="59"/>
-      <c r="B148" s="76"/>
+      <c r="A148" s="72"/>
+      <c r="B148" s="70"/>
       <c r="C148" s="14">
         <v>3053104</v>
       </c>
@@ -5692,8 +5692,8 @@
       <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="59"/>
-      <c r="B149" s="77"/>
+      <c r="A149" s="72"/>
+      <c r="B149" s="71"/>
       <c r="C149" s="14">
         <v>3053104</v>
       </c>
@@ -5718,8 +5718,8 @@
       <c r="R149" s="11"/>
     </row>
     <row r="150" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="60"/>
-      <c r="B150" s="78" t="s">
+      <c r="A150" s="68"/>
+      <c r="B150" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C150" s="14">
@@ -5746,10 +5746,10 @@
       <c r="R150" s="11"/>
     </row>
     <row r="151" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="58" t="s">
+      <c r="A151" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B151" s="78" t="s">
+      <c r="B151" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C151" s="14">
@@ -5776,8 +5776,8 @@
       <c r="R151" s="11"/>
     </row>
     <row r="152" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="59"/>
-      <c r="B152" s="75" t="s">
+      <c r="A152" s="72"/>
+      <c r="B152" s="69" t="s">
         <v>103</v>
       </c>
       <c r="C152" s="14">
@@ -5804,8 +5804,8 @@
       <c r="R152" s="11"/>
     </row>
     <row r="153" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="59"/>
-      <c r="B153" s="76"/>
+      <c r="A153" s="72"/>
+      <c r="B153" s="70"/>
       <c r="C153" s="14">
         <v>3053201</v>
       </c>
@@ -5830,8 +5830,8 @@
       <c r="R153" s="11"/>
     </row>
     <row r="154" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="59"/>
-      <c r="B154" s="77"/>
+      <c r="A154" s="72"/>
+      <c r="B154" s="71"/>
       <c r="C154" s="14">
         <v>3053201</v>
       </c>
@@ -5856,8 +5856,8 @@
       <c r="R154" s="11"/>
     </row>
     <row r="155" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="60"/>
-      <c r="B155" s="78" t="s">
+      <c r="A155" s="68"/>
+      <c r="B155" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C155" s="14">
@@ -5884,10 +5884,10 @@
       <c r="R155" s="11"/>
     </row>
     <row r="156" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="58" t="s">
+      <c r="A156" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="78" t="s">
+      <c r="B156" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C156" s="14">
@@ -5914,8 +5914,8 @@
       <c r="R156" s="11"/>
     </row>
     <row r="157" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="60"/>
-      <c r="B157" s="78" t="s">
+      <c r="A157" s="68"/>
+      <c r="B157" s="56" t="s">
         <v>99</v>
       </c>
       <c r="C157" s="14">
@@ -5924,7 +5924,7 @@
       <c r="D157" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E157" s="83">
+      <c r="E157" s="63">
         <v>48</v>
       </c>
       <c r="F157" s="17"/>
@@ -5942,10 +5942,10 @@
       <c r="R157" s="11"/>
     </row>
     <row r="158" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="67" t="s">
+      <c r="A158" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B158" s="73" t="s">
+      <c r="B158" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="52" t="s">
@@ -5959,48 +5959,73 @@
       </c>
     </row>
     <row r="159" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B159" s="81"/>
+      <c r="B159" s="61"/>
       <c r="C159" s="14"/>
       <c r="D159" s="15"/>
       <c r="E159" s="14"/>
     </row>
     <row r="160" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B160" s="81"/>
+      <c r="B160" s="61"/>
       <c r="C160" s="14"/>
       <c r="D160" s="15"/>
       <c r="E160" s="14"/>
     </row>
     <row r="161" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B161" s="81"/>
+      <c r="B161" s="61"/>
       <c r="C161" s="14"/>
       <c r="D161" s="15"/>
       <c r="E161" s="14"/>
     </row>
     <row r="162" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B162" s="81"/>
+      <c r="B162" s="61"/>
       <c r="C162" s="14"/>
       <c r="D162" s="15"/>
       <c r="E162" s="14"/>
     </row>
     <row r="163" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B163" s="81"/>
+      <c r="B163" s="61"/>
       <c r="C163" s="14"/>
       <c r="D163" s="15"/>
       <c r="E163" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A139:A150"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B66:B68"/>
     <mergeCell ref="B116:B119"/>
     <mergeCell ref="B120:B123"/>
     <mergeCell ref="B124:B126"/>
@@ -6015,42 +6040,17 @@
     <mergeCell ref="B104:B106"/>
     <mergeCell ref="B100:B102"/>
     <mergeCell ref="A98:A114"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A48:A58"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A139:A150"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A151:A155"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
